--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16" count="16">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -40,19 +40,28 @@
     <x:t>KEYWORDS</x:t>
   </x:si>
   <x:si>
-    <x:t>всвс</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ввс</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ввсв</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022-08-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>всвсвсв</x:t>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dscdsc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdcsc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scsdc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-09-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdcsdc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdcsdcsc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdcdsc</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -449,22 +458,22 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
